--- a/testData/muleguard-reports/CONSOLIDATED-REPORT.xlsx
+++ b/testData/muleguard-reports/CONSOLIDATED-REPORT.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>API Name</t>
   </si>
@@ -38,40 +38,55 @@
     <t>FAIL</t>
   </si>
   <si>
-    <t>/Users/raks/Library/CloudStorage/OneDrive-IBM/Documents/GitHub/t2mtools/muleguard_runtimeupgrade/testData/muleguard-reports/customerOrder/report.html</t>
+    <t>.\testData\muleguard-reports\customerOrder\report.html</t>
+  </si>
+  <si>
+    <t>customerOrderV2</t>
+  </si>
+  <si>
+    <t>.\testData\muleguard-reports\customerOrderV2\report.html</t>
+  </si>
+  <si>
+    <t>customerOrder_config</t>
+  </si>
+  <si>
+    <t>.\testData\muleguard-reports\customerOrder_config\report.html</t>
+  </si>
+  <si>
+    <t>customerOrder_V3</t>
+  </si>
+  <si>
+    <t>.\testData\muleguard-reports\customerOrder_V3\report.html</t>
+  </si>
+  <si>
+    <t>muleapp1</t>
+  </si>
+  <si>
+    <t>.\testData\muleguard-reports\muleapp1\report.html</t>
+  </si>
+  <si>
+    <t>muleapp1_config</t>
+  </si>
+  <si>
+    <t>.\testData\muleguard-reports\muleapp1_config\report.html</t>
+  </si>
+  <si>
+    <t>muleapp2_config</t>
+  </si>
+  <si>
+    <t>.\testData\muleguard-reports\muleapp2_config\report.html</t>
   </si>
   <si>
     <t>rakstestmuleapi</t>
   </si>
   <si>
-    <t>/Users/raks/Library/CloudStorage/OneDrive-IBM/Documents/GitHub/t2mtools/muleguard_runtimeupgrade/testData/muleguard-reports/rakstestmuleapi/report.html</t>
-  </si>
-  <si>
-    <t>customerOrder_V3</t>
-  </si>
-  <si>
-    <t>/Users/raks/Library/CloudStorage/OneDrive-IBM/Documents/GitHub/t2mtools/muleguard_runtimeupgrade/testData/muleguard-reports/customerOrder_V3/report.html</t>
-  </si>
-  <si>
-    <t>customerOrderV2</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>/Users/raks/Library/CloudStorage/OneDrive-IBM/Documents/GitHub/t2mtools/muleguard_runtimeupgrade/testData/muleguard-reports/customerOrderV2/report.html</t>
+    <t>.\testData\muleguard-reports\rakstestmuleapi\report.html</t>
   </si>
   <si>
     <t>rakstestmuleapi_config_20251128</t>
   </si>
   <si>
-    <t>/Users/raks/Library/CloudStorage/OneDrive-IBM/Documents/GitHub/t2mtools/muleguard_runtimeupgrade/testData/muleguard-reports/rakstestmuleapi_config_20251128/report.html</t>
-  </si>
-  <si>
-    <t>customerOrder_config</t>
-  </si>
-  <si>
-    <t>/Users/raks/Library/CloudStorage/OneDrive-IBM/Documents/GitHub/t2mtools/muleguard_runtimeupgrade/testData/muleguard-reports/customerOrder_config/report.html</t>
+    <t>.\testData\muleguard-reports\rakstestmuleapi_config_20251128\report.html</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -167,18 +182,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="27.33984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="10.07421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="6.5859375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="5.76953125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="143.375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="28.6484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="10.0078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="6.59765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="5.84765625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="13.8203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="63.5078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -229,10 +244,10 @@
         <v>15.0</v>
       </c>
       <c r="C3" t="n" s="3">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="D3" t="n" s="3">
-        <v>15.0</v>
+        <v>2.0</v>
       </c>
       <c r="E3" t="s" s="3">
         <v>7</v>
@@ -246,10 +261,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="n" s="3">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c r="C4" t="n" s="3">
-        <v>13.0</v>
+        <v>3.0</v>
       </c>
       <c r="D4" t="n" s="3">
         <v>2.0</v>
@@ -262,80 +277,140 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="2">
+      <c r="A5" t="s" s="3">
         <v>13</v>
       </c>
-      <c r="B5" t="n" s="2">
+      <c r="B5" t="n" s="3">
         <v>15.0</v>
       </c>
-      <c r="C5" t="n" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="D5" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E5" t="s" s="2">
+      <c r="C5" t="n" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="D5" t="n" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E5" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s" s="3">
         <v>14</v>
-      </c>
-      <c r="F5" t="s" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="B6" t="n" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="C6" t="n" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D6" t="n" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="E6" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s" s="3">
         <v>16</v>
       </c>
-      <c r="B6" t="n" s="3">
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="B7" t="n" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="C7" t="n" s="3">
         <v>3.0</v>
       </c>
-      <c r="C6" t="n" s="3">
+      <c r="D7" t="n" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E7" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="B8" t="n" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="C8" t="n" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D8" t="n" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E8" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="B9" t="n" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="C9" t="n" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D9" t="n" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="E9" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="B10" t="n" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="C10" t="n" s="3">
         <v>1.0</v>
       </c>
-      <c r="D6" t="n" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="E6" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="B7" t="n" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="C7" t="n" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="D7" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="4">
-        <v>20</v>
-      </c>
-      <c r="B8" t="n" s="0">
-        <v>66.0</v>
-      </c>
-      <c r="C8" t="n" s="0">
-        <v>44.0</v>
-      </c>
-      <c r="D8" t="n" s="0">
-        <v>22.0</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>21</v>
+      <c r="D10" t="n" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E10" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="B11" t="n" s="0">
+        <v>95.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>53.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>42.0</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/testData/muleguard-reports/CONSOLIDATED-REPORT.xlsx
+++ b/testData/muleguard-reports/CONSOLIDATED-REPORT.xlsx
@@ -261,13 +261,13 @@
         <v>11</v>
       </c>
       <c r="B4" t="n" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="C4" t="n" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D4" t="n" s="3">
         <v>5.0</v>
-      </c>
-      <c r="C4" t="n" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="D4" t="n" s="3">
-        <v>2.0</v>
       </c>
       <c r="E4" t="s" s="3">
         <v>7</v>
@@ -321,13 +321,13 @@
         <v>17</v>
       </c>
       <c r="B7" t="n" s="3">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="C7" t="n" s="3">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="D7" t="n" s="3">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="E7" t="s" s="3">
         <v>7</v>
@@ -341,13 +341,13 @@
         <v>19</v>
       </c>
       <c r="B8" t="n" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="C8" t="n" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D8" t="n" s="3">
         <v>5.0</v>
-      </c>
-      <c r="C8" t="n" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="D8" t="n" s="3">
-        <v>2.0</v>
       </c>
       <c r="E8" t="s" s="3">
         <v>7</v>
@@ -381,13 +381,13 @@
         <v>23</v>
       </c>
       <c r="B10" t="n" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="C10" t="n" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D10" t="n" s="3">
         <v>5.0</v>
-      </c>
-      <c r="C10" t="n" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D10" t="n" s="3">
-        <v>4.0</v>
       </c>
       <c r="E10" t="s" s="3">
         <v>7</v>
@@ -401,13 +401,13 @@
         <v>25</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>95.0</v>
+        <v>103.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>53.0</v>
+        <v>49.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>42.0</v>
+        <v>54.0</v>
       </c>
       <c r="E11" t="s" s="0">
         <v>26</v>

--- a/testData/muleguard-reports/CONSOLIDATED-REPORT.xlsx
+++ b/testData/muleguard-reports/CONSOLIDATED-REPORT.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>API Name</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>.\testData\muleguard-reports\customerOrder_V3\report.html</t>
+  </si>
+  <si>
+    <t>edgetest_config</t>
+  </si>
+  <si>
+    <t>.\testData\muleguard-reports\edgetest_config\report.html</t>
   </si>
   <si>
     <t>muleapp1</t>
@@ -182,7 +188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -261,10 +267,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="n" s="3">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="C4" t="n" s="3">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="D4" t="n" s="3">
         <v>5.0</v>
@@ -301,13 +307,13 @@
         <v>15</v>
       </c>
       <c r="B6" t="n" s="3">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
       <c r="C6" t="n" s="3">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="D6" t="n" s="3">
-        <v>13.0</v>
+        <v>1.0</v>
       </c>
       <c r="E6" t="s" s="3">
         <v>7</v>
@@ -321,13 +327,13 @@
         <v>17</v>
       </c>
       <c r="B7" t="n" s="3">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
       <c r="C7" t="n" s="3">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="D7" t="n" s="3">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="E7" t="s" s="3">
         <v>7</v>
@@ -341,13 +347,13 @@
         <v>19</v>
       </c>
       <c r="B8" t="n" s="3">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="C8" t="n" s="3">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="D8" t="n" s="3">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="E8" t="s" s="3">
         <v>7</v>
@@ -361,13 +367,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="n" s="3">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
       <c r="C9" t="n" s="3">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="D9" t="n" s="3">
-        <v>13.0</v>
+        <v>5.0</v>
       </c>
       <c r="E9" t="s" s="3">
         <v>7</v>
@@ -381,13 +387,13 @@
         <v>23</v>
       </c>
       <c r="B10" t="n" s="3">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
       <c r="C10" t="n" s="3">
         <v>2.0</v>
       </c>
       <c r="D10" t="n" s="3">
-        <v>5.0</v>
+        <v>13.0</v>
       </c>
       <c r="E10" t="s" s="3">
         <v>7</v>
@@ -397,20 +403,40 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="4">
+      <c r="A11" t="s" s="3">
         <v>25</v>
       </c>
-      <c r="B11" t="n" s="0">
-        <v>103.0</v>
-      </c>
-      <c r="C11" t="n" s="0">
-        <v>49.0</v>
-      </c>
-      <c r="D11" t="n" s="0">
-        <v>54.0</v>
-      </c>
-      <c r="E11" t="s" s="0">
+      <c r="B11" t="n" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="C11" t="n" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="D11" t="n" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E11" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s" s="3">
         <v>26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>130.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>71.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>59.0</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/testData/muleguard-reports/CONSOLIDATED-REPORT.xlsx
+++ b/testData/muleguard-reports/CONSOLIDATED-REPORT.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>API Name</t>
   </si>
@@ -32,36 +32,12 @@
     <t>Report Path</t>
   </si>
   <si>
-    <t>customerOrder</t>
+    <t>edgetest_config</t>
   </si>
   <si>
     <t>FAIL</t>
   </si>
   <si>
-    <t>.\testData\muleguard-reports\customerOrder\report.html</t>
-  </si>
-  <si>
-    <t>customerOrderV2</t>
-  </si>
-  <si>
-    <t>.\testData\muleguard-reports\customerOrderV2\report.html</t>
-  </si>
-  <si>
-    <t>customerOrder_config</t>
-  </si>
-  <si>
-    <t>.\testData\muleguard-reports\customerOrder_config\report.html</t>
-  </si>
-  <si>
-    <t>customerOrder_V3</t>
-  </si>
-  <si>
-    <t>.\testData\muleguard-reports\customerOrder_V3\report.html</t>
-  </si>
-  <si>
-    <t>edgetest_config</t>
-  </si>
-  <si>
     <t>.\testData\muleguard-reports\edgetest_config\report.html</t>
   </si>
   <si>
@@ -81,18 +57,6 @@
   </si>
   <si>
     <t>.\testData\muleguard-reports\muleapp2_config\report.html</t>
-  </si>
-  <si>
-    <t>rakstestmuleapi</t>
-  </si>
-  <si>
-    <t>.\testData\muleguard-reports\rakstestmuleapi\report.html</t>
-  </si>
-  <si>
-    <t>rakstestmuleapi_config_20251128</t>
-  </si>
-  <si>
-    <t>.\testData\muleguard-reports\rakstestmuleapi_config_20251128\report.html</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -188,18 +152,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="28.6484375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="14.875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.0078125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="6.59765625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="5.84765625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="13.8203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="63.5078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="49.734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -227,13 +191,13 @@
         <v>6</v>
       </c>
       <c r="B2" t="n" s="3">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
       <c r="C2" t="n" s="3">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="D2" t="n" s="3">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E2" t="s" s="3">
         <v>7</v>
@@ -247,13 +211,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="n" s="3">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="C3" t="n" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D3" t="n" s="3">
         <v>13.0</v>
-      </c>
-      <c r="D3" t="n" s="3">
-        <v>2.0</v>
       </c>
       <c r="E3" t="s" s="3">
         <v>7</v>
@@ -270,10 +234,10 @@
         <v>11.0</v>
       </c>
       <c r="C4" t="n" s="3">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="D4" t="n" s="3">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="E4" t="s" s="3">
         <v>7</v>
@@ -287,13 +251,13 @@
         <v>13</v>
       </c>
       <c r="B5" t="n" s="3">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
       <c r="C5" t="n" s="3">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
       <c r="D5" t="n" s="3">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="E5" t="s" s="3">
         <v>7</v>
@@ -303,140 +267,20 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="3">
+      <c r="A6" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="B6" t="n" s="3">
-        <v>11.0</v>
-      </c>
-      <c r="C6" t="n" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="D6" t="n" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E6" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s" s="3">
+      <c r="B6" t="n" s="0">
+        <v>50.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="E6" t="s" s="0">
         <v>16</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="B7" t="n" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="C7" t="n" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D7" t="n" s="3">
-        <v>13.0</v>
-      </c>
-      <c r="E7" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="B8" t="n" s="3">
-        <v>11.0</v>
-      </c>
-      <c r="C8" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D8" t="n" s="3">
-        <v>11.0</v>
-      </c>
-      <c r="E8" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="B9" t="n" s="3">
-        <v>11.0</v>
-      </c>
-      <c r="C9" t="n" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="D9" t="n" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="E9" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="B10" t="n" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="C10" t="n" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D10" t="n" s="3">
-        <v>13.0</v>
-      </c>
-      <c r="E10" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="3">
-        <v>25</v>
-      </c>
-      <c r="B11" t="n" s="3">
-        <v>11.0</v>
-      </c>
-      <c r="C11" t="n" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="D11" t="n" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="E11" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s" s="3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="B12" t="n" s="0">
-        <v>130.0</v>
-      </c>
-      <c r="C12" t="n" s="0">
-        <v>71.0</v>
-      </c>
-      <c r="D12" t="n" s="0">
-        <v>59.0</v>
-      </c>
-      <c r="E12" t="s" s="0">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
